--- a/database/generateMerchandiseInventory.xlsx
+++ b/database/generateMerchandiseInventory.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="60" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -64,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,33 +417,42 @@
       <c r="D1" t="str">
         <v>remark</v>
       </c>
+      <c r="E1" t="str">
+        <v>date</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B2" t="str">
-        <v>9556570311134</v>
+        <v>0739339973142</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" t="str">
-        <v>The SAS application is down, copy the 1080p feed so we can transmit the COM feed!</v>
+        <v>You can't connect the card without hacking the virtual CSS bandwidth!</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45625.33362268518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ONLINE</v>
+        <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B3" t="str">
-        <v>Climbing Course Level 1</v>
+        <v>6950799023404</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D3" t="str">
         <v/>
+      </c>
+      <c r="E3" s="1">
+        <v>45052.33362268518</v>
       </c>
     </row>
     <row r="4">
@@ -449,41 +460,50 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B4" t="str">
-        <v>PK_DSHIRT</v>
+        <v>G_DSHIRT</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D4" t="str">
-        <v>Try to hack the SSD application, maybe it will bypass the auxiliary capacitor!</v>
+        <v>Try to hack the API feed, maybe it will input the virtual protocol!</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45282.33362268518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ONLINE</v>
+        <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B5" t="str">
-        <v>8435350213312</v>
+        <v>P_COACH</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D5" t="str">
-        <v>You can't index the capacitor without indexing the cross-platform SDD circuit!</v>
+        <v/>
+      </c>
+      <c r="E5" s="1">
+        <v>45440.33362268518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>ONLINE</v>
+        <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B6" t="str">
-        <v>6950799020427</v>
+        <v>6950799020342</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Use the multi-byte ASCII port, then you can connect the optical bandwidth!</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45402.33362268518</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +511,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B7" t="str">
-        <v>9555807600553</v>
+        <v>W_PATCH</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" t="str">
         <v/>
+      </c>
+      <c r="E7" s="1">
+        <v>45028.33362268518</v>
       </c>
     </row>
     <row r="8">
@@ -505,13 +528,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B8" t="str">
-        <v>8435350213282</v>
+        <v>FREEZE</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D8" t="str">
-        <v>Use the 1080p SMS interface, then you can hack the auxiliary matrix!</v>
+        <v/>
+      </c>
+      <c r="E8" s="1">
+        <v>45531.33362268518</v>
       </c>
     </row>
     <row r="9">
@@ -519,13 +545,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B9" t="str">
-        <v>6950799023671</v>
+        <v>8435350213244</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D9" t="str">
-        <v>The TCP driver is down, calculate the cross-platform bandwidth so we can input the UTF8 feed!</v>
+        <v/>
+      </c>
+      <c r="E9" s="1">
+        <v>45085.33362268518</v>
       </c>
     </row>
     <row r="10">
@@ -533,172 +562,38 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B10" t="str">
-        <v>minipear</v>
+        <v>8435350219383</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" t="str">
         <v/>
+      </c>
+      <c r="E10" s="1">
+        <v>45508.33362268518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ONLINE</v>
+        <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B11" t="str">
-        <v>9555807600546</v>
+        <v>PCASHIRT</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B12" t="str">
-        <v>6950799023930</v>
-      </c>
-      <c r="C12">
-        <v>68</v>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>ONLINE</v>
-      </c>
-      <c r="B13" t="str">
-        <v>7613119000927</v>
-      </c>
-      <c r="C13">
-        <v>96</v>
-      </c>
-      <c r="D13" t="str">
-        <v>navigating the application won't do anything, we need to back up the auxiliary API monitor!</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B14" t="str">
-        <v>7613119001504</v>
-      </c>
-      <c r="C14">
-        <v>59</v>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B15" t="str">
-        <v>6950799027532</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="str">
-        <v>We need to copy the neural DNS panel!</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B16" t="str">
-        <v>6941193775310</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16" t="str">
-        <v>I'll synthesize the primary XML panel, that should capacitor the AI card!</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>ONLINE</v>
-      </c>
-      <c r="B17" t="str">
-        <v>6950799023336</v>
-      </c>
-      <c r="C17">
-        <v>88</v>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B18" t="str">
-        <v>ART123-03.5</v>
-      </c>
-      <c r="C18">
-        <v>88</v>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>ONLINE</v>
-      </c>
-      <c r="B19" t="str">
-        <v>8435350213343</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B20" t="str">
-        <v>coltscrew</v>
-      </c>
-      <c r="C20">
-        <v>91</v>
-      </c>
-      <c r="D20" t="str">
-        <v>I'll bypass the mobile SMTP card, that should capacitor the PCI matrix!</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>BATUU_3DAMANASARA</v>
-      </c>
-      <c r="B21" t="str">
-        <v>8435350213220</v>
-      </c>
-      <c r="C21">
-        <v>74</v>
-      </c>
-      <c r="D21" t="str">
-        <v/>
+      <c r="E11" s="1">
+        <v>45305.33362268518</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database/generateMerchandiseInventory.xlsx
+++ b/database/generateMerchandiseInventory.xlsx
@@ -426,16 +426,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B2" t="str">
-        <v>0739339973142</v>
+        <v>RENT-6c694612-13f1-474d-9d1a-52b71effb16b</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D2" t="str">
-        <v>You can't connect the card without hacking the virtual CSS bandwidth!</v>
+        <v>hacking the array won't do anything, we need to input the back-end API circuit!</v>
       </c>
       <c r="E2" s="1">
-        <v>45625.33362268518</v>
+        <v>45657.33362268518</v>
       </c>
     </row>
     <row r="3">
@@ -443,16 +443,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B3" t="str">
-        <v>6950799023404</v>
+        <v>8591804637216</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" s="1">
-        <v>45052.33362268518</v>
+        <v>45287.33362268518</v>
       </c>
     </row>
     <row r="4">
@@ -460,16 +460,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B4" t="str">
-        <v>G_DSHIRT</v>
+        <v>P_DSHIRT</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D4" t="str">
-        <v>Try to hack the API feed, maybe it will input the virtual protocol!</v>
+        <v/>
       </c>
       <c r="E4" s="1">
-        <v>45282.33362268518</v>
+        <v>45237.33362268518</v>
       </c>
     </row>
     <row r="5">
@@ -477,16 +477,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B5" t="str">
-        <v>P_COACH</v>
+        <v>T008MU4.5</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5" s="1">
-        <v>45440.33362268518</v>
+        <v>45255.33362268518</v>
       </c>
     </row>
     <row r="6">
@@ -494,16 +494,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B6" t="str">
-        <v>6950799020342</v>
+        <v>0739339973159</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D6" t="str">
-        <v>Use the multi-byte ASCII port, then you can connect the optical bandwidth!</v>
+        <v/>
       </c>
       <c r="E6" s="1">
-        <v>45402.33362268518</v>
+        <v>45650.33362268518</v>
       </c>
     </row>
     <row r="7">
@@ -511,16 +511,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B7" t="str">
-        <v>W_PATCH</v>
+        <v>RENT-e965156f-914d-4380-b3ed-c63a013e7e8e</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>You can't bypass the port without quantifying the neural SMS circuit!</v>
       </c>
       <c r="E7" s="1">
-        <v>45028.33362268518</v>
+        <v>45173.33362268518</v>
       </c>
     </row>
     <row r="8">
@@ -528,16 +528,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B8" t="str">
-        <v>FREEZE</v>
+        <v>6950799023695</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D8" t="str">
         <v/>
       </c>
       <c r="E8" s="1">
-        <v>45531.33362268518</v>
+        <v>45582.33362268518</v>
       </c>
     </row>
     <row r="9">
@@ -545,16 +545,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B9" t="str">
-        <v>8435350213244</v>
+        <v>8595033349339</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D9" t="str">
         <v/>
       </c>
       <c r="E9" s="1">
-        <v>45085.33362268518</v>
+        <v>45257.33362268518</v>
       </c>
     </row>
     <row r="10">
@@ -562,16 +562,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B10" t="str">
-        <v>8435350219383</v>
+        <v>RENT-11aef664-ec12-4c0c-8013-5632ad4921cc</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D10" t="str">
         <v/>
       </c>
       <c r="E10" s="1">
-        <v>45508.33362268518</v>
+        <v>45260.33362268518</v>
       </c>
     </row>
     <row r="11">
@@ -579,16 +579,16 @@
         <v>BATUU_3DAMANASARA</v>
       </c>
       <c r="B11" t="str">
-        <v>PCASHIRT</v>
+        <v>RENT-cd9ae411-b3ea-4bfe-87f2-258d66b3abf5</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>If we bypass the bandwidth, we can get to the SQL microchip through the 1080p PCI monitor!</v>
       </c>
       <c r="E11" s="1">
-        <v>45305.33362268518</v>
+        <v>45498.33362268518</v>
       </c>
     </row>
   </sheetData>
